--- a/medicine/Psychotrope/Vinmonopolet/Vinmonopolet.xlsx
+++ b/medicine/Psychotrope/Vinmonopolet/Vinmonopolet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vinmonopolet est une chaîne de magasins norvégienne spécialisée dans la vente au détail de boissons alcoolisées ou non. Elle a le monopole de la vente d'alcool en Norvège. C’est un organisme d’Etat dirigé par le ministère de la santé dont la création remonte à 1922. Jusqu’en 1996, elle contrôlait la production et l’importation des alcools en Norvège mais depuis cette date son pouvoir a été limité à la distribution. En 2006, on comptait près de 211 magasins, la quasi-totalité en libre-service ; près de 8 000 produits y sont référencés au total.
 Aujourd'hui, le monopole du Vinmonopolet représente près de 80 % du marché total des vins, spiritueux et bières fortes en Norvège (plus de 4,75°). Les 20 % restants correspondent à la distribution d’alcool par les bars, restaurants et hôtels. 
